--- a/src/main/resources/sample_files/drug.xlsx
+++ b/src/main/resources/sample_files/drug.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\GIT\HIS-BE\src\main\resources\sample_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4E3E4EE-CB0E-4F93-9736-6D2D6EF9A0CA}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C64B9BF-5290-43E6-BE31-052152097848}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{E801C2B5-447C-4455-B404-2A02F7E8E316}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Dozage Route List" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>Drug Name</t>
   </si>
@@ -67,6 +68,66 @@
   </si>
   <si>
     <t>&lt;- Example</t>
+  </si>
+  <si>
+    <t>Orally (Tab)</t>
+  </si>
+  <si>
+    <t>Orally (Cap)</t>
+  </si>
+  <si>
+    <t>Orally (Powdered)</t>
+  </si>
+  <si>
+    <t>Orally (Drops)</t>
+  </si>
+  <si>
+    <t>Orally (Syrup)</t>
+  </si>
+  <si>
+    <t>Sublingually</t>
+  </si>
+  <si>
+    <t>Buccally</t>
+  </si>
+  <si>
+    <t>Injection (I.V.)</t>
+  </si>
+  <si>
+    <t>Injection (I.M.)</t>
+  </si>
+  <si>
+    <t>Injection (Intrathecally)</t>
+  </si>
+  <si>
+    <t>Injection (Subcutaneously)</t>
+  </si>
+  <si>
+    <t>Rectally</t>
+  </si>
+  <si>
+    <t>Vaginally</t>
+  </si>
+  <si>
+    <t>Ocular</t>
+  </si>
+  <si>
+    <t>Otic</t>
+  </si>
+  <si>
+    <t>Nasally</t>
+  </si>
+  <si>
+    <t>Inhalation</t>
+  </si>
+  <si>
+    <t>Nebulization</t>
+  </si>
+  <si>
+    <t>Cutaneously</t>
+  </si>
+  <si>
+    <t>Transdermally</t>
   </si>
 </sst>
 </file>
@@ -459,9 +520,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9578CFDB-79F9-4260-A595-A9001C8AAF95}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -580,4 +639,126 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00C2B361-C8C1-446A-B3C7-F36AD32999E8}">
+  <dimension ref="A1:A21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="y+Lq9Gbxa63euF4lPQ78FwVtsPEpPkmUiKUsRDWBSlVv98CcmM3tJrmjYA7uopru3Z2dsdQvzlSjoykjb9ZSnA==" saltValue="RZTq6a7jOyLUUopQeMaicQ==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>